--- a/calibration/sensor stuff.xlsx
+++ b/calibration/sensor stuff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titus.battisti\Desktop\3DScanner_ME401Final-main\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titus.battisti\Desktop\calibration\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{553EEF1C-9D4A-4511-9540-261E379BCA82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460CF54-F774-4CF9-9A5C-2E3022E46272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55A5A61D-7086-4D5E-A8F9-9F8DCABD71D2}"/>
   </bookViews>
@@ -670,7 +670,524 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:noFill/>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2112642169728781E-2"/>
+                  <c:y val="-0.60649496937882763"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11FB-4D81-955B-F0EE062530DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233992656"/>
+        <c:axId val="30443568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233992656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30443568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30443568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233992656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1226,6 +1743,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1259,6 +2292,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6352F64C-B2C3-4E5B-92CA-B9CBEF8405C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1564,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E19FCB-5B71-4B1A-832F-391ECF3B6E9B}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +2644,7 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>1</v>
       </c>
@@ -1601,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +2716,7 @@
         <v>-1.0288883904554352E-24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1662,7 +2731,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1677,7 +2746,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1691,8 +2760,12 @@
         <f t="shared" si="1"/>
         <v>4.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>LINEST(D31:D49,C31:C49^{1,2,3,4,5,6,7,8})</f>
+        <v>-1.0771647346196038E-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1707,7 +2780,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1721,8 +2794,12 @@
         <f t="shared" si="1"/>
         <v>4.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f>{1,2,3}</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1737,7 +2814,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1752,7 +2829,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1767,7 +2844,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1782,7 +2859,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1797,7 +2874,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1812,7 +2889,7 @@
         <v>3.5550000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1827,7 +2904,7 @@
         <v>3.4550000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1842,7 +2919,7 @@
         <v>3.355</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>

--- a/calibration/sensor stuff.xlsx
+++ b/calibration/sensor stuff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\titus.battisti\Desktop\calibration\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infin\Desktop\3DScanner_ME401Final-main\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460CF54-F774-4CF9-9A5C-2E3022E46272}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E398733-4AE1-4E26-BD8A-69C7036FF229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{55A5A61D-7086-4D5E-A8F9-9F8DCABD71D2}"/>
+    <workbookView xWindow="-25320" yWindow="-510" windowWidth="25440" windowHeight="15390" xr2:uid="{55A5A61D-7086-4D5E-A8F9-9F8DCABD71D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,39 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,6 +144,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Over Large Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -515,6 +576,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>d (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -577,6 +693,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -705,7 +876,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>fit</a:t>
+              <a:t>Fit Over Valid Range</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -741,7 +912,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15077476986846386"/>
+          <c:y val="0.13968623002701835"/>
+          <c:w val="0.79988805433902899"/>
+          <c:h val="0.68696574387153375"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -782,57 +963,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="6"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.2112642169728781E-2"/>
-                  <c:y val="-0.60649496937882763"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$31:$C$47</c:f>
@@ -957,6 +1087,535 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-11FB-4D81-955B-F0EE062530DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$49:$I$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$49:$J$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>1.6688757037161803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6287741825382458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.533132296679808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4439232571512779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3609325942971733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2839257935566284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2126519539558469</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1468471789177261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0862377096566842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0305428112558008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97947742135524685</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93275457120989991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89008758870572358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85119209275340069</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81578778830965248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78360007110519803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75436145099093821</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72781280264164394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70370445218901878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68179710818529315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66186264512871773</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64368474761359806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62705942299631445</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61179539030118235</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59771435291802888</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58465116247609927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57245388110704098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56098374914148508</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55011506511408115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53973498478065807</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52974324568392106</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52005182363278379</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51058452729013126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50127653689728646</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49207389298931403</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48293294079007865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47381973580328562</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46470941594653681</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45558554540803087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.44643943523259111</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43726944547618629</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42808027359752288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41888223358779797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40969053016468138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40052453219484718</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.39140704933202386</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.38236361569225963</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37342178421904748</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36461043521601866</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.35595910236407491</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34749731935952255</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.33925399015026869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.33125678556896432</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.32353156900062885</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.31610185354209719</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.30898829295556141</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30220820853032748</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.29577515381541986</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28969851900604127</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28398317659386407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27862916973515084</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.27363144460499456</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.26897962784919116</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.2646578500675929</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.26064461609545475</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.25691272268341692</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.25342922400071188</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25015544521755828</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2470470442622954</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.24405412166532159</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.24112137823995283</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.2381883201814361</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.23518951099374164</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.23205486948368304</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.2287100128895645</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.22507664405097216</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.22107298134778119</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.21661422996779578</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.21161309289719554</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.20598031985856835</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.19962529224100223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E409-4923-ACA7-0B27B3AA4F1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -992,6 +1651,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1037,6 +1751,7 @@
         <c:axId val="30443568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1054,6 +1769,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>d (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2263,16 +3033,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2299,16 +3069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2633,10 +3403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E19FCB-5B71-4B1A-832F-391ECF3B6E9B}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,7 +3944,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3189,7 +3959,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3204,7 +3974,7 @@
         <v>1.425</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3219,7 +3989,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3234,7 +4004,7 @@
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3249,7 +4019,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3264,7 +4034,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3279,7 +4049,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3294,7 +4064,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3309,7 +4079,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3324,7 +4094,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3338,8 +4108,35 @@
         <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3353,8 +4150,36 @@
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" cm="1">
+        <f t="array" ref="F44:N44">LINEST(D31:D49,C31:C49^{1,2,3,4,5,6,7,8})</f>
+        <v>-1.0771647346196038E-20</v>
+      </c>
+      <c r="G44">
+        <v>4.3526310929407286E-17</v>
+      </c>
+      <c r="H44">
+        <v>-7.2662834728002518E-14</v>
+      </c>
+      <c r="I44">
+        <v>6.4848865995212556E-11</v>
+      </c>
+      <c r="J44">
+        <v>-3.3321561325327939E-8</v>
+      </c>
+      <c r="K44">
+        <v>9.7745262920795189E-6</v>
+      </c>
+      <c r="L44">
+        <v>-1.4650318272344941E-3</v>
+      </c>
+      <c r="M44">
+        <v>6.5692849745021667E-2</v>
+      </c>
+      <c r="N44">
+        <v>5.3111464599951432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3368,8 +4193,51 @@
         <f t="shared" si="1"/>
         <v>0.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>457</v>
+      </c>
+      <c r="F45">
+        <f>F44*$E$45^F43</f>
+        <v>-20.493291950849713</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:N45" si="2">G44*$E$45^G43</f>
+        <v>181.20294868377499</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>-661.92614752522502</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1292.6572501884182</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>-1453.4166897088373</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>932.91981899955351</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>-305.97043208609688</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>30.021632333474901</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>5.3111464599951432</v>
+      </c>
+      <c r="P45">
+        <f>SUM(F45:N45)</f>
+        <v>0.30623539420777846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3384,7 +4252,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3399,7 +4267,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3414,7 +4282,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3428,9 +4296,820 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
+      <c r="F49">
+        <f t="array" ref="F49">LINEST(D31:D49,C31:C49^{1,2,3,4,5,6,7,8})</f>
+        <v>-1.0771647346196038E-20</v>
+      </c>
+      <c r="I49">
+        <v>183</v>
+      </c>
+      <c r="J49">
+        <f>$F$44*I49^8+$G$44*I49^7+$H$44*I49^6+$I$44*I49^5+$J$44*I49^4+$K$44*I49^3+$L$44*I49^2+$M$44*I49+$N$44</f>
+        <v>1.6688757037161803</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>185</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:J113" si="3">$F$44*I50^8+$G$44*I50^7+$H$44*I50^6+$I$44*I50^5+$J$44*I50^4+$K$44*I50^3+$L$44*I50^2+$M$44*I50+$N$44</f>
+        <v>1.6287741825382458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>I50+5</f>
+        <v>190</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>1.533132296679808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" ref="I52:I115" si="4">I51+5</f>
+        <v>195</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>1.4439232571512779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>1.3609325942971733</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>1.2839257935566284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>1.2126519539558469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1.1468471789177261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>1.0862377096566842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>1.0305428112558008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>0.97947742135524685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>0.93275457120989991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0.89008758870572358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>0.85119209275340069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0.81578778830965248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>0.78360007110519803</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>0.75436145099093821</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>0.72781280264164394</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>0.70370445218901878</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>0.68179710818529315</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>0.66186264512871773</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>0.64368474761359806</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>0.62705942299631445</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>0.61179539030118235</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>0.59771435291802888</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>0.58465116247609927</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>0.57245388110704098</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>0.56098374914148508</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>0.55011506511408115</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>0.53973498478065807</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>0.52974324568392106</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>335</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>0.52005182363278379</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>0.51058452729013126</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>0.50127653689728646</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>0.49207389298931403</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <f t="shared" si="4"/>
+        <v>355</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>0.48293294079007865</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>0.47381973580328562</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>0.46470941594653681</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>0.45558554540803087</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>0.44643943523259111</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>0.43726944547618629</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>0.42808027359752288</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>0.41888223358779797</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>395</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>0.40969053016468138</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>0.40052453219484718</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>0.39140704933202386</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>0.38236361569225963</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>415</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>0.37342178421904748</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>0.36461043521601866</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>0.35595910236407491</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>0.34749731935952255</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f t="shared" si="4"/>
+        <v>435</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>0.33925399015026869</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>0.33125678556896432</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <f t="shared" si="4"/>
+        <v>445</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>0.32353156900062885</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="3"/>
+        <v>0.31610185354209719</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="3"/>
+        <v>0.30898829295556141</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="3"/>
+        <v>0.30220820853032748</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f t="shared" si="4"/>
+        <v>465</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="3"/>
+        <v>0.29577515381541986</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="3"/>
+        <v>0.28969851900604127</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="3"/>
+        <v>0.28398317659386407</v>
+      </c>
+    </row>
+    <row r="109" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>0.27862916973515084</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="3"/>
+        <v>0.27363144460499456</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>0.26897962784919116</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f t="shared" si="4"/>
+        <v>495</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>0.2646578500675929</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="3"/>
+        <v>0.26064461609545475</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <f t="shared" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="J114">
+        <f t="shared" ref="J114:J129" si="5">$F$44*I114^8+$G$44*I114^7+$H$44*I114^6+$I$44*I114^5+$J$44*I114^4+$K$44*I114^3+$L$44*I114^2+$M$44*I114+$N$44</f>
+        <v>0.25691272268341692</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="5"/>
+        <v>0.25342922400071188</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <f t="shared" ref="I116:I179" si="6">I115+5</f>
+        <v>515</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="5"/>
+        <v>0.25015544521755828</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="5"/>
+        <v>0.2470470442622954</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="5"/>
+        <v>0.24405412166532159</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="5"/>
+        <v>0.24112137823995283</v>
+      </c>
+    </row>
+    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <f t="shared" si="6"/>
+        <v>535</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="5"/>
+        <v>0.2381883201814361</v>
+      </c>
+    </row>
+    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="5"/>
+        <v>0.23518951099374164</v>
+      </c>
+    </row>
+    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="5"/>
+        <v>0.23205486948368304</v>
+      </c>
+    </row>
+    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="5"/>
+        <v>0.2287100128895645</v>
+      </c>
+    </row>
+    <row r="124" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="5"/>
+        <v>0.22507664405097216</v>
+      </c>
+    </row>
+    <row r="125" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="5"/>
+        <v>0.22107298134778119</v>
+      </c>
+    </row>
+    <row r="126" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <f t="shared" si="6"/>
+        <v>565</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="5"/>
+        <v>0.21661422996779578</v>
+      </c>
+    </row>
+    <row r="127" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="5"/>
+        <v>0.21161309289719554</v>
+      </c>
+    </row>
+    <row r="128" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="5"/>
+        <v>0.20598031985856835</v>
+      </c>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="5"/>
+        <v>0.19962529224100223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>